--- a/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,57 +452,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45488</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45516</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45579</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45586</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45593</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>20</v>
       </c>
     </row>
@@ -517,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,41 +571,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -631,6 +632,313 @@
       </c>
       <c r="B9" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.421621811809398</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.87072141995785</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.013960185754557</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.11130850165905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.087656879646235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.88507453389086</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.009164626348861</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.29737418674591</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.272437945678684</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.900935356594</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.092910062252504</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.01408316122905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.316480137290442</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.95097696667724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.528574343632132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.54732285664771</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.358214107242608</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.44485253872237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.756269551712653</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.59024756412403</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.778501426791852</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.04795000308468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.679678016378832</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.57361481454888</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.154080038204632</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.6354837039874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.449765678550508</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43.10095254115106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.990457479207063</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.90020509669757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.182519251029402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43.69162757112688</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.593884983699295</v>
+      </c>
+      <c r="D18" t="n">
+        <v>42.23153955995213</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.695125580233679</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.3385643736105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-4.210122873043985</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40.8141877927287</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1M2BDNR_po_data.xlsx
@@ -645,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,16 +664,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -682,12 +672,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.421621811809398</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.87072141995785</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -696,12 +680,6 @@
       <c r="B3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
-        <v>7.013960185754557</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.11130850165905</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -710,12 +688,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.087656879646235</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.88507453389086</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -724,12 +696,6 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.009164626348861</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.29737418674591</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -738,12 +704,6 @@
       <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.272437945678684</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47.900935356594</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -752,12 +712,6 @@
       <c r="B7" t="n">
         <v>24</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.092910062252504</v>
-      </c>
-      <c r="D7" t="n">
-        <v>47.01408316122905</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -766,12 +720,6 @@
       <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
-        <v>-4.316480137290442</v>
-      </c>
-      <c r="D8" t="n">
-        <v>44.95097696667724</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -780,12 +728,6 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.528574343632132</v>
-      </c>
-      <c r="D9" t="n">
-        <v>47.54732285664771</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -794,12 +736,6 @@
       <c r="B10" t="n">
         <v>20</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.358214107242608</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.44485253872237</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -808,12 +744,6 @@
       <c r="B11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.756269551712653</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.59024756412403</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -822,12 +752,6 @@
       <c r="B12" t="n">
         <v>20</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.778501426791852</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43.04795000308468</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -836,12 +760,6 @@
       <c r="B13" t="n">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.679678016378832</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.57361481454888</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -850,12 +768,6 @@
       <c r="B14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.154080038204632</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42.6354837039874</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -864,12 +776,6 @@
       <c r="B15" t="n">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.449765678550508</v>
-      </c>
-      <c r="D15" t="n">
-        <v>43.10095254115106</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -878,12 +784,6 @@
       <c r="B16" t="n">
         <v>20</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.990457479207063</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.90020509669757</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -892,12 +792,6 @@
       <c r="B17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.182519251029402</v>
-      </c>
-      <c r="D17" t="n">
-        <v>43.69162757112688</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -906,12 +800,6 @@
       <c r="B18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.593884983699295</v>
-      </c>
-      <c r="D18" t="n">
-        <v>42.23153955995213</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -920,12 +808,6 @@
       <c r="B19" t="n">
         <v>19</v>
       </c>
-      <c r="C19" t="n">
-        <v>-2.695125580233679</v>
-      </c>
-      <c r="D19" t="n">
-        <v>42.3385643736105</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -933,12 +815,6 @@
       </c>
       <c r="B20" t="n">
         <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-4.210122873043985</v>
-      </c>
-      <c r="D20" t="n">
-        <v>40.8141877927287</v>
       </c>
     </row>
   </sheetData>
